--- a/common_code/missed_sig_analysis/New_Table_S4.xlsx
+++ b/common_code/missed_sig_analysis/New_Table_S4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1_main\common_code\missed_sig_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\common_code\missed_sig_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0994862-17FF-4402-A229-F0FF7765E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814CFE8C-01E3-40A3-8293-226BD961A2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="11925" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="495" windowWidth="16920" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Table S4" sheetId="10" r:id="rId1"/>
@@ -139,15 +139,9 @@
     <t>ID1</t>
   </si>
   <si>
-    <t>Signature missed by both programs in all 5 runs</t>
-  </si>
-  <si>
     <t>Signature missed by SigProfilerExtractor in 4 runs</t>
   </si>
   <si>
-    <t>Signature missed by mSigHdp in all 5 runs</t>
-  </si>
-  <si>
     <t>Remark</t>
   </si>
   <si>
@@ -209,18 +203,6 @@
   </si>
   <si>
     <t>ID10</t>
-  </si>
-  <si>
-    <t>Signature missed by SigProfilerExtractor in 1 runs</t>
-  </si>
-  <si>
-    <t>Signature missed by mSigHdp in 2 runs; Signature missed by SigProfilerExtractor in 4 runs</t>
-  </si>
-  <si>
-    <t>Signature missed by mSigHdp in 2 runs; Signature missed by SigProfilerExtractor in all 5 runs</t>
-  </si>
-  <si>
-    <t>Signature missed by mSigHdp in 1 runs; Signature missed by SigProfilerExtractor in all 5 runs</t>
   </si>
   <si>
     <r>
@@ -235,6 +217,24 @@
       </rPr>
       <t xml:space="preserve"> Table manually edited from output in https://github.com/Rozen-Lab/Liu_et_al_Sup_Files/tree/main/common_code/missed_sig_analysis.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature missed by mSigHdp in all 5 runs; Signature missed by SigProfilerExtractor in all 5 runs; </t>
+  </si>
+  <si>
+    <t>Signature missed by mSigHdp in 2 runs</t>
+  </si>
+  <si>
+    <t>Signature missed by mSigHdp in 1 run</t>
+  </si>
+  <si>
+    <t>Signature missed by SigProfilerExtractor in 1 run</t>
+  </si>
+  <si>
+    <t>Signature missed by mSigHdp in all 5 runs; Signature missed by SigProfilerExtractor in all 5 runs</t>
+  </si>
+  <si>
+    <t>Signature missed by mSigHdp in all 5 runs; Signature missed by SigProfilerExtractor in 4 runs</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -479,6 +479,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{25CF7EEA-3B22-47D7-8528-DEF4EA09114D}"/>
@@ -806,8 +807,8 @@
   </sheetPr>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -822,7 +823,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -837,19 +838,19 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -863,18 +864,18 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -891,7 +892,7 @@
       <c r="D9" s="5">
         <v>0.94074074074074077</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -905,6 +906,7 @@
       <c r="D10" s="7">
         <v>0.92962962962962958</v>
       </c>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
@@ -916,6 +918,7 @@
       <c r="D11" s="7">
         <v>0.37777777777777777</v>
       </c>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
@@ -927,6 +930,7 @@
       <c r="D12" s="7">
         <v>0.33333333333333331</v>
       </c>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
@@ -938,6 +942,7 @@
       <c r="D13" s="7">
         <v>0.32777777777777778</v>
       </c>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
@@ -949,6 +954,7 @@
       <c r="D14" s="7">
         <v>0.28888888888888886</v>
       </c>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
@@ -960,6 +966,7 @@
       <c r="D15" s="7">
         <v>0.2</v>
       </c>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
@@ -971,6 +978,7 @@
       <c r="D16" s="7">
         <v>0.19814814814814816</v>
       </c>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
@@ -982,6 +990,7 @@
       <c r="D17" s="7">
         <v>0.19444444444444445</v>
       </c>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
@@ -993,6 +1002,7 @@
       <c r="D18" s="7">
         <v>0.10555555555555556</v>
       </c>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
@@ -1004,6 +1014,7 @@
       <c r="D19" s="7">
         <v>9.8148148148148151E-2</v>
       </c>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
@@ -1015,8 +1026,8 @@
       <c r="D20" s="19">
         <v>9.6296296296296297E-2</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>41</v>
+      <c r="E20" s="33" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1029,8 +1040,8 @@
       <c r="D21" s="19">
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
+      <c r="E21" s="33" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1043,6 +1054,7 @@
       <c r="D22" s="7">
         <v>8.7037037037037038E-2</v>
       </c>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
@@ -1054,8 +1066,8 @@
       <c r="D23" s="5">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>40</v>
+      <c r="E23" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1068,7 +1080,7 @@
       <c r="D24" s="5">
         <v>4.2592592592592592E-2</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1082,7 +1094,7 @@
       <c r="D25" s="5">
         <v>3.1481481481481478E-2</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1096,7 +1108,7 @@
       <c r="D26" s="5">
         <v>2.4074074074074074E-2</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1110,6 +1122,7 @@
       <c r="D27" s="7">
         <v>2.0370370370370372E-2</v>
       </c>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
@@ -1121,19 +1134,20 @@
       <c r="D28" s="7">
         <v>1.6666666666666666E-2</v>
       </c>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="13">
         <v>5</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="12">
         <v>9.2592592592592587E-3</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>31</v>
+      <c r="E29" s="33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1146,7 +1160,7 @@
       <c r="D30" s="5">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="33" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1160,13 +1174,13 @@
       <c r="D31" s="12">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>39</v>
+      <c r="E31" s="33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
@@ -1213,7 +1227,7 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35"/>
       <c r="H35"/>
@@ -1255,7 +1269,7 @@
         <v>0.21574074074074101</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F38"/>
       <c r="H38"/>
@@ -1271,7 +1285,7 @@
         <v>0.16574074074074099</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F39"/>
       <c r="H39"/>
@@ -1304,7 +1318,7 @@
     </row>
     <row r="42" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="6">
         <v>53</v>
@@ -1313,7 +1327,7 @@
         <v>4.9074074074074103E-2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42"/>
       <c r="H42"/>
@@ -1329,7 +1343,7 @@
         <v>4.81481481481481E-2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F43"/>
       <c r="H43"/>
@@ -1345,7 +1359,7 @@
         <v>4.72222222222222E-2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44"/>
       <c r="H44"/>
@@ -1361,7 +1375,7 @@
         <v>4.6296296296296301E-2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F45"/>
       <c r="H45"/>
@@ -1410,7 +1424,7 @@
     </row>
     <row r="49" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="6">
         <v>31</v>
@@ -1419,7 +1433,7 @@
         <v>2.87037037037037E-2</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49"/>
       <c r="H49"/>
@@ -1435,7 +1449,7 @@
         <v>2.4074074074074098E-2</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F50"/>
       <c r="H50"/>
@@ -1471,7 +1485,7 @@
     </row>
     <row r="53" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="13">
         <v>20</v>
@@ -1480,14 +1494,14 @@
         <v>1.85185185185185E-2</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F53"/>
       <c r="H53"/>
     </row>
     <row r="54" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="6">
         <v>15</v>
@@ -1503,7 +1517,7 @@
     </row>
     <row r="55" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" s="6">
         <v>13</v>
@@ -1519,7 +1533,7 @@
     </row>
     <row r="56" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C56" s="13">
         <v>12</v>
@@ -1528,7 +1542,7 @@
         <v>1.1111111111111099E-2</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F56"/>
       <c r="H56"/>
@@ -1551,7 +1565,7 @@
     </row>
     <row r="58" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58" s="30">
         <v>10</v>
@@ -1567,7 +1581,7 @@
     </row>
     <row r="59" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59" s="13">
         <v>10</v>
@@ -1576,30 +1590,30 @@
         <v>9.2592592592592605E-3</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F59"/>
       <c r="H59"/>
     </row>
     <row r="60" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="13">
         <v>8</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="12">
         <v>7.4074074074074103E-3</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F60"/>
       <c r="H60"/>
     </row>
     <row r="61" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C61" s="13">
         <v>7</v>
@@ -1608,7 +1622,7 @@
         <v>6.4814814814814804E-3</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F61"/>
       <c r="H61"/>
@@ -1640,7 +1654,7 @@
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63"/>
       <c r="H63"/>
@@ -1656,14 +1670,14 @@
         <v>1.85185185185185E-3</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F64"/>
       <c r="H64"/>
     </row>
     <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="9"/>
@@ -1814,7 +1828,7 @@
     </row>
     <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
@@ -1980,7 +1994,7 @@
     <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C89" s="6">
         <v>51</v>
@@ -1997,7 +2011,7 @@
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="27"/>
       <c r="B90" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C90" s="28">
         <v>24</v>

--- a/common_code/missed_sig_analysis/New_Table_S4.xlsx
+++ b/common_code/missed_sig_analysis/New_Table_S4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\common_code\missed_sig_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\non-M\github\mSigHdp_paper_sup_files_x1\common_code\missed_sig_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EBB3B1-2A0C-4CB6-9734-9C9CCC2602AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A17DE3C-6FA6-473C-AB7A-0521B9978FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="30" windowWidth="16920" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35670" yWindow="15" windowWidth="28770" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Table S4" sheetId="10" r:id="rId1"/>
@@ -142,18 +142,6 @@
     <t>Proportion of tumors with the signature</t>
   </si>
   <si>
-    <t>SBS realistic synthetic data, set 1</t>
-  </si>
-  <si>
-    <t>Indel realistic synthetic data, set 2</t>
-  </si>
-  <si>
-    <t>Indel realistic synthetic data, set 1</t>
-  </si>
-  <si>
-    <t>SBS realistic synthetic data, set 2</t>
-  </si>
-  <si>
     <t>SBS9</t>
   </si>
   <si>
@@ -187,20 +175,32 @@
     <t>ID10</t>
   </si>
   <si>
-    <t>mSigHdp (mSigHdp_ds_3k for SBS data sets)</t>
-  </si>
-  <si>
-    <t>SigProfilerExtractor</t>
-  </si>
-  <si>
-    <t>#runs which failed to extract the signature</t>
-  </si>
-  <si>
     <t>Color Key</t>
   </si>
   <si>
+    <t># runs that failed to extract the signature</t>
+  </si>
+  <si>
+    <t>SBS_set1</t>
+  </si>
+  <si>
+    <t>SBS_set2</t>
+  </si>
+  <si>
+    <t>indel_set1</t>
+  </si>
+  <si>
+    <t>indel_set2</t>
+  </si>
+  <si>
+    <t>mSigHdp (mSigHdp_ds_3k for SBSs)</t>
+  </si>
+  <si>
+    <t>SigProfiler-Extractor</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Table S4 SigProfilerExtractor false negative SBS signatures tended to be rarer signatures. </t>
+      <t xml:space="preserve">Table S4 mSIgHdp_ds_3k (SBSs) and mSigHdp (indels) tended to detect signatures at lower prevalence than SigProfilerExtractor. </t>
     </r>
     <r>
       <rPr>
@@ -209,7 +209,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Table manually edited from output in https://github.com/steverozen/mSigHdp_paper_sup_files_x1/tree/main/common_code/missed_sig_analysis.</t>
+      <t xml:space="preserve"> Table manually edited from output in https://github.com/steverozen/mSigHdp_paper_sup_files_x1/tree/main/ common_code/missed_sig_analysis.</t>
     </r>
   </si>
 </sst>
@@ -217,6 +217,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,7 +385,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -454,33 +457,39 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{25CF7EEA-3B22-47D7-8528-DEF4EA09114D}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C1BCEE47-2648-4276-B44E-DA591FF58B99}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{7F9712F1-6F22-4561-BC17-C25C3898DA4C}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -501,7 +510,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -803,47 +812,49 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>38</v>
@@ -854,44 +865,44 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:6" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="37"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
@@ -906,7 +917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -919,7 +930,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
@@ -932,7 +943,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
@@ -945,7 +956,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
@@ -958,7 +969,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
@@ -971,7 +982,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
@@ -984,7 +995,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
@@ -997,7 +1008,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1021,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
@@ -1023,7 +1034,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
@@ -1036,7 +1047,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1062,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +1077,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>23</v>
       </c>
@@ -1079,7 +1090,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
@@ -1094,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
@@ -1109,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
@@ -1124,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1139,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>16</v>
       </c>
@@ -1152,7 +1163,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>17</v>
       </c>
@@ -1165,14 +1176,14 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="12">
         <v>5</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="35">
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="E30" s="7">
@@ -1182,14 +1193,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="5">
         <v>3</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="34">
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="E31" s="7"/>
@@ -1197,14 +1208,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="12">
         <v>3</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="35">
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="E32" s="7">
@@ -1214,9 +1225,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="8"/>
@@ -1224,7 +1235,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1251,7 @@
       </c>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>26</v>
       </c>
@@ -1254,7 +1265,7 @@
       <c r="F35" s="7"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1281,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1295,7 @@
       <c r="F37" s="7"/>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>21</v>
       </c>
@@ -1298,7 +1309,7 @@
       <c r="F38" s="7"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>18</v>
       </c>
@@ -1314,7 +1325,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>12</v>
       </c>
@@ -1330,7 +1341,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>19</v>
       </c>
@@ -1344,7 +1355,7 @@
       <c r="F41" s="7"/>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>20</v>
       </c>
@@ -1358,9 +1369,9 @@
       <c r="F42" s="7"/>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C43" s="5">
         <v>53</v>
@@ -1374,7 +1385,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>3</v>
       </c>
@@ -1392,7 +1403,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
         <v>22</v>
       </c>
@@ -1408,7 +1419,7 @@
       </c>
       <c r="H45"/>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
         <v>13</v>
       </c>
@@ -1424,7 +1435,7 @@
       <c r="F46" s="7"/>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>24</v>
       </c>
@@ -1438,7 +1449,7 @@
       <c r="F47" s="7"/>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +1463,7 @@
       <c r="F48" s="7"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1479,9 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C50" s="5">
         <v>31</v>
@@ -1484,7 +1495,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>8</v>
       </c>
@@ -1500,7 +1511,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>4</v>
       </c>
@@ -1516,7 +1527,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>16</v>
       </c>
@@ -1530,9 +1541,9 @@
       <c r="F53" s="7"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C54" s="12">
         <v>20</v>
@@ -1546,14 +1557,14 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C55" s="5">
         <v>15</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="34">
         <v>1.38888888888889E-2</v>
       </c>
       <c r="E55" s="7"/>
@@ -1562,14 +1573,14 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C56" s="5">
         <v>13</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="34">
         <v>1.2037037037037001E-2</v>
       </c>
       <c r="E56" s="7"/>
@@ -1578,14 +1589,14 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C57" s="12">
         <v>12</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="35">
         <v>1.1111111111111099E-2</v>
       </c>
       <c r="E57" s="7">
@@ -1596,14 +1607,14 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="28">
         <v>12</v>
       </c>
-      <c r="D58" s="29">
+      <c r="D58" s="36">
         <v>1.1111111111111099E-2</v>
       </c>
       <c r="E58" s="7"/>
@@ -1612,14 +1623,14 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C59" s="28">
         <v>10</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="36">
         <v>9.2592592592592605E-3</v>
       </c>
       <c r="E59" s="7"/>
@@ -1628,14 +1639,14 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C60" s="12">
         <v>10</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="35">
         <v>9.2592592592592605E-3</v>
       </c>
       <c r="E60" s="7">
@@ -1646,14 +1657,14 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="12">
         <v>8</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="35">
         <v>7.4074074074074103E-3</v>
       </c>
       <c r="E61" s="7">
@@ -1664,14 +1675,14 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C62" s="12">
         <v>7</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="35">
         <v>6.4814814814814804E-3</v>
       </c>
       <c r="E62" s="7">
@@ -1682,14 +1693,14 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="12">
         <v>6</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="35">
         <v>5.5555555555555601E-3</v>
       </c>
       <c r="E63" s="7">
@@ -1700,14 +1711,14 @@
       </c>
       <c r="H63"/>
     </row>
-    <row r="64" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="5">
         <v>3</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="34">
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="E64" s="7"/>
@@ -1716,14 +1727,14 @@
       </c>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="12">
         <v>2</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="35">
         <v>1.85185185185185E-3</v>
       </c>
       <c r="E65" s="23">
@@ -1734,9 +1745,9 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="8"/>
@@ -1744,7 +1755,7 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="7" t="s">
         <v>34</v>
@@ -1758,7 +1769,7 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="7" t="s">
         <v>33</v>
@@ -1772,7 +1783,7 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="5" t="s">
         <v>0</v>
@@ -1788,7 +1799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="7" t="s">
         <v>32</v>
@@ -1802,7 +1813,7 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="7" t="s">
         <v>31</v>
@@ -1816,7 +1827,7 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="7" t="s">
         <v>30</v>
@@ -1830,7 +1841,7 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="7" t="s">
         <v>29</v>
@@ -1844,7 +1855,7 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="5" t="s">
         <v>2</v>
@@ -1860,7 +1871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="7" t="s">
         <v>28</v>
@@ -1874,7 +1885,7 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="5" t="s">
         <v>1</v>
@@ -1890,7 +1901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="23" t="s">
         <v>27</v>
@@ -1904,16 +1915,16 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-    </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+    </row>
+    <row r="79" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79" s="7" t="s">
         <v>34</v>
@@ -1928,7 +1939,7 @@
       <c r="F79" s="7"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80" s="7" t="s">
         <v>32</v>
@@ -1943,7 +1954,7 @@
       <c r="F80" s="7"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81" s="7" t="s">
         <v>33</v>
@@ -1958,7 +1969,7 @@
       <c r="F81" s="7"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82" s="5" t="s">
         <v>0</v>
@@ -1975,7 +1986,7 @@
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83" s="7" t="s">
         <v>30</v>
@@ -1990,7 +2001,7 @@
       <c r="F83" s="7"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84" s="7" t="s">
         <v>31</v>
@@ -2005,7 +2016,7 @@
       <c r="F84" s="7"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85" s="7" t="s">
         <v>29</v>
@@ -2020,7 +2031,7 @@
       <c r="F85" s="7"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86" s="7" t="s">
         <v>2</v>
@@ -2035,7 +2046,7 @@
       <c r="F86" s="7"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87" s="7" t="s">
         <v>28</v>
@@ -2050,7 +2061,7 @@
       <c r="F87" s="7"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88" s="7" t="s">
         <v>1</v>
@@ -2065,7 +2076,7 @@
       <c r="F88" s="7"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89" s="7" t="s">
         <v>27</v>
@@ -2080,10 +2091,10 @@
       <c r="F89" s="7"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C90" s="5">
         <v>51</v>
@@ -2097,10 +2108,10 @@
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="25"/>
       <c r="B91" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C91" s="26">
         <v>24</v>
@@ -2108,20 +2119,20 @@
       <c r="D91" s="27">
         <v>1.1887072808321001E-2</v>
       </c>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33">
+      <c r="E91" s="29"/>
+      <c r="F91" s="29">
         <v>5</v>
       </c>
       <c r="G91"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId1"/>
